--- a/data/income_statement/3digits/total/432_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/432_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>432-Electrical, plumbing and other construction installation activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>432-Electrical, plumbing and other construction installation activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,131 +841,151 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>7559609.07491</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>8478016.10998</v>
+        <v>8478016.123579999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>11262937.56559</v>
+        <v>11262956.46855</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>12784616.79294</v>
+        <v>12836538.51731</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>15226471.12878</v>
+        <v>15317225.31893</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>17934069.57215</v>
+        <v>18097188.42669</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>19556293.84436</v>
+        <v>21344461.41908</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>24675483.93029</v>
+        <v>24699182.15949</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>32572685.36144</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>36137344.27636</v>
+        <v>36284494.61843</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>36968047.63488001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>37726649.0428</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>39943199.713</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>7021304.887970001</v>
+        <v>7021304.88797</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>7971584.51755</v>
+        <v>7971584.53115</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>10572569.30302</v>
+        <v>10572588.20598</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>11946443.03698</v>
+        <v>11997679.13239</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>13979985.96171</v>
+        <v>14068757.8709</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>16275706.5937</v>
+        <v>16434778.2052</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>18481151.9428</v>
+        <v>20143130.32242</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>23402029.57834</v>
+        <v>23419976.67927</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>30727514.63442</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>34236594.91694999</v>
+        <v>34381092.6926</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>34758966.7089</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>35474435.104</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>36852286.812</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>371248.06517</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>354126.05461</v>
+        <v>354126.0546099999</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>544523.99104</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>659635.5219000001</v>
+        <v>659855.10786</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1038999.83885</v>
+        <v>1040631.73674</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1432576.01852</v>
+        <v>1434927.35126</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>848076.8729699999</v>
+        <v>950893.60843</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>922899.1932000001</v>
+        <v>925066.15276</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1433863.70283</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1434094.1452</v>
+        <v>1436189.52973</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1695027.90415</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1729870.00198</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2631101.311</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>167056.12177</v>
@@ -1076,76 +997,86 @@
         <v>145844.27153</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>178538.23406</v>
+        <v>179004.27706</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>207485.32822</v>
+        <v>207835.71129</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>225786.95993</v>
+        <v>227482.87023</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>227065.02859</v>
+        <v>250437.48823</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>350555.15875</v>
+        <v>354139.32746</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>411307.0241900001</v>
+        <v>411307.0241899999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>466655.2142100001</v>
+        <v>467212.3961</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>514053.02183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>522343.9368200001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>459811.59</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>47121.85698</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>53560.71958999999</v>
+        <v>53560.71959</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>77282.66726999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>102584.47435</v>
+        <v>102632.06461</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>95419.17914000001</v>
+        <v>95431.88643</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>110266.74239</v>
+        <v>111577.91134</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>146898.34033</v>
+        <v>158189.80439</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>241473.82629</v>
+        <v>241475.23718</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>346278.37925</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>430835.97191</v>
+        <v>430925.35581</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>356122.87437</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>358374.59024</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>745016.659</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>33457.43294999999</v>
+        <v>33457.43295</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>36009.80267</v>
@@ -1154,34 +1085,39 @@
         <v>51155.13776999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>63918.93964</v>
+        <v>63963.36108</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>71862.79207</v>
+        <v>71875.49936</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>81464.83382</v>
+        <v>82437.63805000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>102722.66791</v>
+        <v>113355.71679</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>196913.42247</v>
+        <v>196914.83336</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>297729.4422700001</v>
+        <v>297729.44227</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>382047.58367</v>
+        <v>382129.80431</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>316370.3491000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>318429.10726</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>695567.5550000001</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>10143.83768</v>
@@ -1190,22 +1126,22 @@
         <v>16244.75338</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>24172.32121000001</v>
+        <v>24172.32121</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>36565.29780000001</v>
+        <v>36568.46662</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>19041.66436</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>20785.75584</v>
+        <v>20950.06476</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>36087.18631</v>
+        <v>36477.29504</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>32143.98698</v>
+        <v>32143.98698000001</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>36150.95622</v>
@@ -1214,13 +1150,18 @@
         <v>36482.51212000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>24007.35089</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>24178.6715</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>39252.261</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>3520.58635</v>
@@ -1238,10 +1179,10 @@
         <v>4514.72271</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>8016.152730000001</v>
+        <v>8190.20853</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>8088.486110000001</v>
+        <v>8356.79256</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>12416.41684</v>
@@ -1250,55 +1191,65 @@
         <v>12397.98076</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>12305.87612</v>
+        <v>12313.03938</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>15745.17438</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>15766.81148</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>10196.843</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>7512487.21793</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>8424455.390390001</v>
+        <v>8424455.40399</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>11185654.89832</v>
+        <v>11185673.80128</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>12682032.31859</v>
+        <v>12733906.4527</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>15131051.94964</v>
+        <v>15221793.4325</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>17823802.82976</v>
+        <v>17985610.51535</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>19409395.50403</v>
+        <v>21186271.61469</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>24434010.104</v>
+        <v>24457706.92231</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>32226406.98219</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>35706508.30445</v>
+        <v>35853569.26261999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>36611924.76051</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>37368274.45256</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>39198183.054</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>6350152.02049</v>
@@ -1307,37 +1258,42 @@
         <v>7173815.68715</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>9593502.705259997</v>
+        <v>9593508.87919</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>10880092.06308</v>
+        <v>10926815.12027</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>13004837.95349</v>
+        <v>13084036.89722</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>15376555.95256</v>
+        <v>15532190.70494</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>16754629.48842</v>
+        <v>18402587.6726</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>21127732.38891</v>
+        <v>21145624.22254</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>27954576.85826</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>31378509.79143</v>
+        <v>31512930.81583</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>31842358.74904</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>32538930.96655</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>34157374.616</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>738255.7498100001</v>
@@ -1349,34 +1305,39 @@
         <v>1170773.89858</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1176280.74662</v>
+        <v>1176754.25676</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1455723.90457</v>
+        <v>1459752.09539</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2029381.35333</v>
+        <v>2040284.88777</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2095740.84451</v>
+        <v>2178391.42213</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2609047.21494</v>
+        <v>2609782.81758</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>3498426.95917</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>4077001.466109999</v>
+        <v>4087373.39421</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>3660785.58416</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>3800061.14318</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>4176939.492</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>2235390.61842</v>
@@ -1388,34 +1349,39 @@
         <v>3659042.36678</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>4362812.31233</v>
+        <v>4366379.71192</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>4865092.448139999</v>
+        <v>4875268.48359</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>5483989.34851</v>
+        <v>5546090.98726</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>6429445.05203</v>
+        <v>6625621.5019</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>7599553.86299</v>
+        <v>7607125.395810001</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>9683183.743690001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>11286011.2444</v>
+        <v>11362566.23462</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>11235543.263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>11599628.39606</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>12705496.802</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>3341209.41324</v>
@@ -1424,157 +1390,177 @@
         <v>3646693.38626</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>4721512.476349999</v>
+        <v>4721518.650280001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>5318388.263940001</v>
+        <v>5361051.51309</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>6616529.81731</v>
+        <v>6681524.534770001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>7782066.68283</v>
+        <v>7864204.10763</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>8160477.79269</v>
+        <v>9527587.701380001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>10847025.05471</v>
+        <v>10856323.12874</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>14672716.11852</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>15911757.01098</v>
+        <v>15959161.58222</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>16815589.83654</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>17006817.76206</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>17080782.573</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>35296.23902</v>
+        <v>35296.23901999999</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>9670.139939999999</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>42173.96355</v>
+        <v>42173.96355000001</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>22610.74019</v>
+        <v>22629.6385</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>67491.78346999999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>81118.56789000001</v>
+        <v>81610.72228</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>68965.79918999999</v>
+        <v>70987.04719</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>72106.25627</v>
+        <v>72392.88041</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>100250.03688</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>103740.06994</v>
+        <v>103829.60478</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>130440.06534</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>132423.66525</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>194155.749</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1162335.19744</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1250639.70324</v>
+        <v>1250639.71684</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1592152.19306</v>
+        <v>1592164.92209</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1801940.25551</v>
+        <v>1807091.33243</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2126213.99615</v>
+        <v>2137756.53528</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2447246.8772</v>
+        <v>2453419.81041</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2654766.01561</v>
+        <v>2783683.94209</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3306277.71509</v>
+        <v>3312082.69977</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>4271830.123930001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4327998.51302</v>
+        <v>4340638.44679</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>4769566.01147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4829343.48601</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>5040808.438</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>744728.50713</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>855897.62132</v>
+        <v>855902.6970800001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1057675.85659</v>
+        <v>1057690.48771</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1249301.94236</v>
+        <v>1251637.01198</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1409810.36572</v>
+        <v>1417287.09432</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1619464.84486</v>
+        <v>1637072.20954</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1737251.59645</v>
+        <v>1862267.51572</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2195721.9522</v>
+        <v>2201981.23449</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>2541963.09083</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3036954.69876</v>
+        <v>3049230.95258</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3191670.06743</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3242642.04496</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3395865.956</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>4961.35581</v>
+        <v>4961.355810000001</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>2174.33965</v>
@@ -1583,16 +1569,16 @@
         <v>3085.76661</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>2269.94697</v>
+        <v>2270.73087</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>4651.921550000001</v>
+        <v>4651.92155</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>4563.720119999999</v>
+        <v>4564.78812</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>3535.22281</v>
+        <v>3669.8561</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>3011.4833</v>
@@ -1604,13 +1590,18 @@
         <v>4020.56276</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>6599.37741</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>6602.95013</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>5463.489</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>107096.68107</v>
@@ -1619,115 +1610,130 @@
         <v>130337.07736</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>156990.91538</v>
+        <v>156991.87551</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>195261.44469</v>
+        <v>195399.47654</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>225554.74672</v>
+        <v>225635.07195</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>249523.69118</v>
+        <v>251746.70953</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>265598.13895</v>
+        <v>280295.73912</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>313922.586</v>
+        <v>314382.29619</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>379144.29091</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>484222.18426</v>
+        <v>485398.09199</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>496962.97966</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>502943.43267</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>481795.719</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>632670.47025</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>723386.2043100001</v>
+        <v>723391.28007</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>897599.1746</v>
+        <v>897612.8455899999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1051770.5507</v>
+        <v>1053966.80457</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1179603.69745</v>
+        <v>1187000.10082</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1365377.43356</v>
+        <v>1380760.71189</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1468118.23469</v>
+        <v>1578301.9205</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1878787.8829</v>
+        <v>1884587.455</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>2158243.07288</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2548711.95174</v>
+        <v>2559812.29783</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2688107.71036</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2733095.66216</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2908606.748</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>417606.69031</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>394742.08192</v>
+        <v>394737.01976</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>534476.33647</v>
+        <v>534474.43438</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>552638.3131499999</v>
+        <v>555454.32045</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>716403.63043</v>
+        <v>720469.44096</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>827782.0323400002</v>
+        <v>816347.6008699998</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>917514.41916</v>
+        <v>921416.42637</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1110555.76289</v>
+        <v>1110101.46528</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1729867.0331</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1291043.81426</v>
+        <v>1291407.49421</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1577895.94404</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1586701.44105</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1644942.482</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>509841.0226900001</v>
@@ -1739,34 +1745,39 @@
         <v>428722.67382</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>456603.50069</v>
+        <v>456738.45524</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>389796.16024</v>
+        <v>389950.78122</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>530068.4003100001</v>
+        <v>532257.78925</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>495235.15357</v>
+        <v>847850.01853</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1030634.53609</v>
+        <v>1031533.95349</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1244044.95621</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>4427332.361200001</v>
+        <v>4427149.686190001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1942054.98643</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1946766.48864</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2527533.076</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>5320.44043</v>
@@ -1775,7 +1786,7 @@
         <v>27597.60312</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>23773.01044999999</v>
+        <v>23773.01045</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>7273.49048</v>
@@ -1787,25 +1798,30 @@
         <v>3613.8791</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>5702.340980000001</v>
+        <v>8456.03276</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>6685.321369999999</v>
+        <v>6694.235650000001</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>89915.94275999999</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>51731.30833000001</v>
+        <v>51731.30833</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>280497.63089</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>280502.86769</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>70019.77</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>248504.40564</v>
@@ -1826,10 +1842,10 @@
         <v>8361.41561</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>314.83929</v>
+        <v>4646.68965</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>3264.42479</v>
+        <v>3279.95724</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>4525.32714</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>18427.96626</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>33550.772</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>30347.92664</v>
@@ -1856,34 +1877,39 @@
         <v>33265.10773</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>41471.6963</v>
+        <v>41472.43264</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>35821.77261</v>
+        <v>35881.11718</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>48716.66579</v>
+        <v>49349.10080000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>45160.42176999999</v>
+        <v>58848.25243</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>81455.12707999999</v>
+        <v>81604.54663</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>100873.08145</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>178098.18365</v>
+        <v>178118.81194</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>199084.70601</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>200045.74718</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>167214.409</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1705.97785</v>
@@ -1895,34 +1921,39 @@
         <v>1706.65712</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>2274.19047</v>
+        <v>2275.25947</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>3261.85062</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>4304.94192</v>
+        <v>4304.94413</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>925.9180799999999</v>
+        <v>957.11226</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>1687.4225</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>4189.45258</v>
+        <v>4189.452579999999</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>5316.31331</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1710.01656</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>2349.47113</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>4267.622</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>4871.89901</v>
@@ -1940,28 +1971,33 @@
         <v>12278.46495</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>7295.75966</v>
+        <v>7296.086020000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>4740.59318</v>
+        <v>5291.197</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>9124.39416</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>33056.56841000001</v>
+        <v>33056.56841</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>25388.59523</v>
+        <v>25539.24144</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>16282.28086</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>17120.08968</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>15658.789</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>2028.01111</v>
@@ -1976,31 +2012,36 @@
         <v>2521.85971</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>2582.30007</v>
+        <v>2586.03676</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>2707.00334</v>
+        <v>2715.10334</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>5012.04203</v>
+        <v>5320.56828</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>3617.62255</v>
+        <v>3664.26441</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>3172.88468</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>7036.320709999999</v>
+        <v>7036.32071</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>8067.53086</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>8072.38912</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>18038.474</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>193156.94656</v>
@@ -2012,34 +2053,39 @@
         <v>187465.15932</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>139477.75134</v>
+        <v>139594.48195</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>277231.18465</v>
+        <v>277336.74685</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>420520.35103</v>
+        <v>421850.81913</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>384489.77102</v>
+        <v>709388.81369</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>863162.3876200001</v>
+        <v>864042.57514</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>929185.02773</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>3982713.525820001</v>
+        <v>3982871.42288</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1300163.80103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1301664.3094</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2112143.76</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>116.92248</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>263.37137</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>43.697</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>376.94483</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>571.29966</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>216.194</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>23411.54814</v>
@@ -2129,34 +2185,39 @@
         <v>24125.73015</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>34490.77444</v>
+        <v>34507.19304</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>37342.35883</v>
+        <v>37328.33635000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>34312.21582</v>
+        <v>34530.27308000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>48241.72638</v>
+        <v>54293.85162</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>61578.4406</v>
+        <v>61377.16234</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>78745.40811</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>157755.38331</v>
+        <v>157243.53674</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>116986.38293</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>117748.97715</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>106379.589</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>145104.61169</v>
@@ -2168,34 +2229,39 @@
         <v>172112.95767</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>206825.74147</v>
+        <v>207040.42063</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>343116.56575</v>
+        <v>343469.11078</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>494638.87787</v>
+        <v>497095.1151699999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>423866.45413</v>
+        <v>776917.6680900001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1008472.34758</v>
+        <v>1009309.73889</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1056019.06668</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>4204370.6745</v>
+        <v>4204409.59582</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1502630.03975</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1512964.53577</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2129006.476</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1772.60605</v>
@@ -2207,34 +2273,39 @@
         <v>4764.08887</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>3432.20769</v>
+        <v>3432.207689999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2723.86827</v>
+        <v>2734.10308</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>3550.594059999999</v>
+        <v>3552.76502</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>3176.26258</v>
+        <v>3427.36979</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>3703.42653</v>
+        <v>3710.76125</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>4399.42798</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>6762.97377</v>
+        <v>6763.01624</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>10951.99154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>11602.46781</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>5732.067</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>17308.28166</v>
@@ -2246,16 +2317,16 @@
         <v>20267.02937</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>33845.59812</v>
+        <v>33849.74518999999</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>46122.26106</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>35912.21009</v>
+        <v>35959.90189</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>45767.59833</v>
+        <v>50113.45611</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>91261.34172</v>
@@ -2267,13 +2338,18 @@
         <v>92259.60743999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>83857.84742999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>87461.52609</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>59043.37</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>358.94669</v>
@@ -2288,19 +2364,19 @@
         <v>284.28987</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>569.58216</v>
+        <v>569.5821599999999</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>232.84969</v>
+        <v>249.10941</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>794.2522799999999</v>
+        <v>1712.40282</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>459.20852</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>5565.38585</v>
+        <v>5565.385850000001</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>2296.55285</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>20036.29173</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>7742.704</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>112660.72039</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>99117.02295</v>
+        <v>99117.02294999998</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>127587.16312</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>153022.23156</v>
+        <v>153232.76273</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>282558.5359</v>
+        <v>282836.00316</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>426524.52614</v>
+        <v>428597.04538</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>346689.5970299999</v>
+        <v>693077.3026800001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>869282.9813399999</v>
+        <v>869946.13901</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>960365.8033899999</v>
+        <v>960365.8033900001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>4000278.55661</v>
+        <v>4000310.13258</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1262674.5597</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1263434.61022</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2004827.5</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>50.37274</v>
@@ -2381,16 +2467,21 @@
         <v>33.11543</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>888.4601499999999</v>
+        <v>888.46015</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>66.96301000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>438.78073</v>
@@ -2405,13 +2496,13 @@
         <v>452.00429</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>2.26628</v>
+        <v>47.22257</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>13.8607</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>27.61538</v>
+        <v>74.48018</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>3e-05</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>10.74724</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>5.897</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>12514.90343</v>
@@ -2441,34 +2537,39 @@
         <v>17450.73772</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>15654.23875</v>
+        <v>15654.23967</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>10892.86523</v>
+        <v>10912.7519</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>27261.56217</v>
+        <v>27579.15775</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>27328.36112</v>
+        <v>28429.8891</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>43469.82088</v>
+        <v>43636.7198</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>40984.84538</v>
+        <v>40984.84538000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>101749.97496</v>
+        <v>101757.27784</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>125031.6391</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>130351.92967</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>51654.84</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>151474.14112</v>
@@ -2480,34 +2581,39 @@
         <v>103963.75461</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>142825.51791</v>
+        <v>144205.75214</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>154684.82486</v>
+        <v>156352.40077</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>218786.34014</v>
+        <v>221078.95118</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>245235.18185</v>
+        <v>267222.89478</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>335852.22086</v>
+        <v>336133.11592</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>485104.53118</v>
+        <v>485104.5311799999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>721651.2800599999</v>
+        <v>722015.56113</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>783682.7559800001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>788289.96248</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>522386.073</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>149183.82464</v>
@@ -2519,34 +2625,39 @@
         <v>100014.90693</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>138767.82417</v>
+        <v>140148.0584</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>149156.1971</v>
+        <v>150823.77301</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>211158.90827</v>
+        <v>213441.98964</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>235135.9381</v>
+        <v>257102.81249</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>320039.91161</v>
+        <v>320320.80667</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>459258.64495</v>
+        <v>459258.6449499999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>695507.4906499999</v>
+        <v>695861.4199</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>756522.85296</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>760915.56747</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>500797.701</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>2290.31648</v>
@@ -2561,13 +2672,13 @@
         <v>4057.69374</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>5528.627759999999</v>
+        <v>5528.62776</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>7627.43187</v>
+        <v>7636.96154</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>10099.24375</v>
+        <v>10120.08229</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>15812.30925</v>
@@ -2576,115 +2687,130 @@
         <v>25845.88623</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>26143.78941</v>
+        <v>26154.14123</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>27159.90302</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>27374.39501</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>21588.372</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>630868.9601899999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>596043.50003</v>
+        <v>596038.43787</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>687122.29801</v>
+        <v>687120.3959199999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>659590.55446</v>
+        <v>660946.60292</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>608398.40006</v>
+        <v>610598.71063</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>644425.2146400001</v>
+        <v>630431.32377</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>743647.93675</v>
+        <v>725125.88203</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>796865.73054</v>
+        <v>796192.5639600001</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1432788.39145</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>792354.2209</v>
+        <v>792132.0234500001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1233638.13474</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1232213.43144</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1521083.009</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>29272.84738</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>43280.55217999999</v>
+        <v>43280.55218000001</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>46723.00644</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>66566.17275</v>
+        <v>66639.97055</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>95878.20043000001</v>
+        <v>96161.05395</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>104552.68288</v>
+        <v>106940.74226</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>117929.42292</v>
+        <v>138248.34551</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>173109.55051</v>
+        <v>173317.29073</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>214917.13653</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>231670.18092</v>
+        <v>231806.24491</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>256792.11278</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>259214.58063</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>318074.977</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>3099.58308</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>5932.727720000001</v>
+        <v>5932.72772</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>1872.37718</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>4974.091759999999</v>
+        <v>4974.091760000001</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>20919.34655</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>6480.503840000001</v>
+        <v>6480.503839999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>17074.15246</v>
+        <v>19292.75641</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>19578.80914</v>
@@ -2696,13 +2822,18 @@
         <v>13406.47255</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>5231.35349</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>5231.887949999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>29136.064</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>26173.2643</v>
@@ -2711,82 +2842,92 @@
         <v>37347.82446</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>44850.62926000001</v>
+        <v>44850.62926</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>61592.08098999999</v>
+        <v>61665.87879</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>74958.85388</v>
+        <v>75241.7074</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>98072.17903999999</v>
+        <v>100460.23842</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>100855.27046</v>
+        <v>118955.5891</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>153530.74137</v>
+        <v>153738.48159</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>204508.44569</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>218263.70837</v>
+        <v>218399.77236</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>251560.75929</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>253982.69268</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>288938.913</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>56636.58114</v>
+        <v>56636.58113999999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>69639.85504000001</v>
+        <v>69639.91703999999</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>432248.12645</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>72954.1948</v>
+        <v>73499.82597000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>97907.02058</v>
+        <v>98246.86798000002</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>312071.41581</v>
+        <v>313869.77017</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>119447.62812</v>
+        <v>135487.60778</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>425138.43134</v>
+        <v>425278.3580600001</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>199758.79671</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>549805.03347</v>
+        <v>550873.45857</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>251864.9437100001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>251659.17262</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>274167.514</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>1014.56059</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>524.4944499999999</v>
+        <v>524.5564499999999</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>597.7968300000001</v>
@@ -2795,16 +2936,16 @@
         <v>394.2310699999999</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>530.0052999999999</v>
+        <v>530.0053</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>1089.91116</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1151.76781</v>
+        <v>1177.42458</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1307.17201</v>
+        <v>1310.9366</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>1324.89863</v>
@@ -2813,16 +2954,21 @@
         <v>3416.24492</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2462.68811</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2551.77159</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>5706.48</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>9262.655189999999</v>
+        <v>9262.655190000001</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>24442.34306</v>
@@ -2831,7 +2977,7 @@
         <v>12921.01191</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>8600.771100000002</v>
+        <v>8601.194449999999</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>28217.043</v>
@@ -2840,25 +2986,30 @@
         <v>19345.07079</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>26870.93892</v>
+        <v>32899.09088</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>19309.44356</v>
+        <v>19310.50506</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>25393.26054</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>63442.36911</v>
+        <v>63585.32870000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>31369.06678</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>31631.31383</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>50994.523</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>46359.36536</v>
@@ -2870,148 +3021,166 @@
         <v>418729.31771</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>63959.19263000001</v>
+        <v>64504.40045</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>69159.97228</v>
+        <v>69499.81968</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>291636.43386</v>
+        <v>293434.78822</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>91424.92139</v>
+        <v>101411.09232</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>404521.81577</v>
+        <v>404656.9164</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>173040.63754</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>482946.4194399999</v>
+        <v>483871.88495</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>218033.18882</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>217476.0872</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>217466.511</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>603505.2264299999</v>
+        <v>603505.22643</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>569684.1971700001</v>
+        <v>569679.0730099999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>301597.178</v>
+        <v>301595.27591</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>653202.53241</v>
+        <v>654086.7475000001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>606369.5799100001</v>
+        <v>608512.8966</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>436906.48171</v>
+        <v>423502.29586</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>742129.7315499999</v>
+        <v>727886.61976</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>544836.84971</v>
+        <v>544231.49663</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1447946.73127</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>474219.36835</v>
+        <v>473064.80979</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1238565.30381</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1239768.83945</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1564990.472</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>85253.82055000002</v>
+        <v>85253.82055</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>78007.62096</v>
+        <v>78007.62096000001</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>108705.70679</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>98189.40328999999</v>
+        <v>98446.54760000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>126389.94689</v>
+        <v>126991.62629</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>151362.33295</v>
+        <v>151976.89395</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>170034.26908</v>
+        <v>184277.9612</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>196462.74384</v>
+        <v>196620.94956</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>287744.00883</v>
+        <v>287744.0088300001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>308722.48068</v>
+        <v>309519.10409</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>368288.00324</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>374121.9767299999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>385103.084</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>518251.40588</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>491676.57621</v>
+        <v>491671.45205</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>192891.47121</v>
+        <v>192889.56912</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>555013.1291200001</v>
+        <v>555640.1999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>479979.6330200001</v>
+        <v>481521.27031</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>285544.14876</v>
+        <v>271525.40191</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>572095.46247</v>
+        <v>543608.6585599999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>348374.10587</v>
+        <v>347610.54707</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1160202.72244</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>165496.88767</v>
+        <v>163545.7057</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>870277.3005700001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>865646.8627199999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1179887.388</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>8596</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>8924</v>
+        <v>8925</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>9325</v>
+        <v>9327</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>9491</v>
+        <v>9506</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>9874</v>
+        <v>9904</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>10114</v>
+        <v>10180</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>10589</v>
+        <v>10787</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>11322</v>
+        <v>11370</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>12269</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>12503</v>
+        <v>12867</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>12490</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>13167</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>13710</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>